--- a/public/SiswaData/siswa.xlsx
+++ b/public/SiswaData/siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angga Rivian\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DAD54-94B7-4C5D-8B28-74442474346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2205361F-E5F2-44C7-9261-B4BF59A6F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3B0A1DD-8D3F-41C2-B78E-2B38332D8853}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>lahir</t>
   </si>
@@ -69,31 +69,145 @@
     <t>kelas</t>
   </si>
   <si>
-    <t>X TKJ 1</t>
-  </si>
-  <si>
     <t>X TKJ 2</t>
   </si>
   <si>
-    <t>X TKJ 3</t>
-  </si>
-  <si>
     <t>jurusan</t>
   </si>
   <si>
-    <t>TKJ</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
-    <t>jauh</t>
-  </si>
-  <si>
-    <t>deket</t>
-  </si>
-  <si>
-    <t>sedeng</t>
+    <t>agus</t>
+  </si>
+  <si>
+    <t>dewi</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>hilda</t>
+  </si>
+  <si>
+    <t>iqbal</t>
+  </si>
+  <si>
+    <t>rasad</t>
+  </si>
+  <si>
+    <t>abdul</t>
+  </si>
+  <si>
+    <t>rizki</t>
+  </si>
+  <si>
+    <t>raka</t>
+  </si>
+  <si>
+    <t>lwan</t>
+  </si>
+  <si>
+    <t>fadil</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>sandi</t>
+  </si>
+  <si>
+    <t>faisal</t>
+  </si>
+  <si>
+    <t>fatur</t>
+  </si>
+  <si>
+    <t>sansan</t>
+  </si>
+  <si>
+    <t>dimas</t>
+  </si>
+  <si>
+    <t>maya</t>
+  </si>
+  <si>
+    <t>halda</t>
+  </si>
+  <si>
+    <t>maryam</t>
+  </si>
+  <si>
+    <t>mirna</t>
+  </si>
+  <si>
+    <t>Teknik Komputer Jaringan</t>
+  </si>
+  <si>
+    <t>2002-06-09</t>
+  </si>
+  <si>
+    <t>2002-06-10</t>
+  </si>
+  <si>
+    <t>2002-06-11</t>
+  </si>
+  <si>
+    <t>2002-06-12</t>
+  </si>
+  <si>
+    <t>2002-06-13</t>
+  </si>
+  <si>
+    <t>2002-06-14</t>
+  </si>
+  <si>
+    <t>2002-06-15</t>
+  </si>
+  <si>
+    <t>2002-06-16</t>
+  </si>
+  <si>
+    <t>2002-06-17</t>
+  </si>
+  <si>
+    <t>2002-06-18</t>
+  </si>
+  <si>
+    <t>2002-06-19</t>
+  </si>
+  <si>
+    <t>2002-06-20</t>
+  </si>
+  <si>
+    <t>2002-06-21</t>
+  </si>
+  <si>
+    <t>2002-06-22</t>
+  </si>
+  <si>
+    <t>2002-06-23</t>
+  </si>
+  <si>
+    <t>2002-06-24</t>
+  </si>
+  <si>
+    <t>2002-06-25</t>
+  </si>
+  <si>
+    <t>2002-06-26</t>
+  </si>
+  <si>
+    <t>2002-06-27</t>
+  </si>
+  <si>
+    <t>2002-06-28</t>
+  </si>
+  <si>
+    <t>2002-06-29</t>
+  </si>
+  <si>
+    <t>cugenang</t>
   </si>
 </sst>
 </file>
@@ -452,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17322FD7-B32B-45E2-97E6-8F35151CEBBE}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +578,7 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
@@ -485,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -508,13 +622,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,16 +665,499 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3232126</v>
+      </c>
+      <c r="B5">
+        <v>34004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3232127</v>
+      </c>
+      <c r="B6">
+        <v>34005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3232128</v>
+      </c>
+      <c r="B7">
+        <v>34006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3232129</v>
+      </c>
+      <c r="B8">
+        <v>34007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3232130</v>
+      </c>
+      <c r="B9">
+        <v>34008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3232131</v>
+      </c>
+      <c r="B10">
+        <v>34009</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3232132</v>
+      </c>
+      <c r="B11">
+        <v>34010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3232133</v>
+      </c>
+      <c r="B12">
+        <v>34011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3232134</v>
+      </c>
+      <c r="B13">
+        <v>34012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3232135</v>
+      </c>
+      <c r="B14">
+        <v>34013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3232136</v>
+      </c>
+      <c r="B15">
+        <v>34014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3232137</v>
+      </c>
+      <c r="B16">
+        <v>34015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3232138</v>
+      </c>
+      <c r="B17">
+        <v>34016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3232139</v>
+      </c>
+      <c r="B18">
+        <v>34017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3232140</v>
+      </c>
+      <c r="B19">
+        <v>34018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3232141</v>
+      </c>
+      <c r="B20">
+        <v>34019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3232142</v>
+      </c>
+      <c r="B21">
+        <v>34020</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3232143</v>
+      </c>
+      <c r="B22">
+        <v>34021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3232144</v>
+      </c>
+      <c r="B23">
+        <v>34022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3232145</v>
+      </c>
+      <c r="B24">
+        <v>34023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3232146</v>
+      </c>
+      <c r="B25">
+        <v>34024</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
